--- a/Testdata/TC_77.xlsx
+++ b/Testdata/TC_77.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>BRoAAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyb3QsiVhvAFvcoiSokBSlZWXYrg7Eqda7jK7s5L4lgItUqQpiqJwivSKPqUoUNdoEyC1e/kvgSW7T/0LPXPZ2QupuHQNwdr5zmXOnDlzzpkReud6ERiXJE5oFD6s2Q2rZpDQi3wanj+speysbt+vveOi3rVHgiMc4wVhwGyAVJjsXyf0YW3O2HLfNK+urhpXzUYUn5uOZdnm4+Fg4s3JAtdpmDAceqSmpfw3S9Vc1PEXQ8KwjxmWkg9r/Um/0SHU6wI2xCE+J3GjnSY0JEnSCxlllCRcMiaYkU53+B25MNdp3G/YyFzDc852SgNf8pU4Ja74YFoypQviOpa9W7d26017ajv7zs6+4zQsa++9TFAzogFO2ITEl9QTwIThxVKIW7tN23acHcdB5kYm0JU7wEWjwB+TS5oQv0OCINnKI6bawJbHYNXbOdNCZkFWKXp7Ex7FeDmfUhaQ7cwYD9vGIlS25EpcdBDFxAP/vZVJh+RqFCu3TpcDoE7nNGarLl5tres4IfFoyZ20naiLulHIWgGJ2fES9pr4EApAcFmcEmTeQcyFujTx4JuGKfHdMxwkRaESEZ1E8UWyxB45hHNsch1XYRBhHwKO0YRRL590jYCO4mgJGmHydhT4B6BVMW8gaM39EFzMp21H0UVu3SYiErsq9hf2dIFZxr6Go8k8uhqFwWqSzhIvpjPid9sZ90Ya4gdSSXfShEULsCKHkMQKyAr+wQGswqhLPLrAwVEATkzcJmgpAaiVsuiMsk4UpIswyWyqoOgEVjQl13qFeoxGsLkhd3oU9sOKlo20ssQ4usq2cB0XTijArcTLtnudUGXuApZt3zpF7Ahf5QENoD4U96KAlqNiMieEbQwJSUE8FR7wiuO2V3xOZOYIgsiE6AbUtff2HtQtG36mlrUvfmBmTUa90BcfUF/u122H5+ycLyOiw3QxmsEJvhRrcm2gVSAEqwjaAQ4vAD2hbH7YyqzfQEFyzXfyr9MQnNVlgFcC1n4pYqgfekHqE5kC+uGZCEpum+K+k47WoAEcaxfhcDVdLXkqMO/g6JIznAZQnRgkkXMdi1UYtZKLKk8RQsdxkO2xy2t/AsXf8xcND9IjL3ANL1pwwISaezJBZpGf53iP9MLzAQ7PU8ii2o9VXEcYzwDTGIcJX45OmpVg28yEsn2Rydxd31xkVljQlCyWUYyDIfiEHqShqJWqGIBzh5jN1QjObUC8zL9mLqqlykZlNr+JTZxAuQKe3NXBroCCice77DAKpzQHEV/jMPKhyOOAzuJSgG2kwWblpS8LNb66Lctg5n9oMyG3fJuseO+RDxTO49W1M4IYoQ6Y5E7G93adHasJ/ZQYI7HkMcGB0YMGlBGjH16ShC1AbN8Yk4T68EVxsG+8S2aEwoEXPlJHbmvpohw6iMn7KTTSK2FKC+wtI2UGyKbnNMTBOqOm5ALuKcFxsCowyqUOIg/4bn/0r5tfP3v5/LPbj568/uIH//n7L1/+46c3T38IH7d/+evNx7+Qy5TMaIpnAREGTdu7u1bzHgSahpBKDVDf/dRjAjs9FfVej5FqW8Wg0+t3Hg3aIpdoMBPnrUTKD8MAr6I0H07kIsREYkvNLBIkizvNcpMal6hdwou8PIW8Q70kZe4i/S5B6YtXLz579eJPd0orh5XKzg4vJ28uO7a9xqfLDu/8ZWOX3Svu1a2duuMUmCs8aAzXI+jjtJ/6vtu0rT3LaVq2zuO+DuRNTFWS0jTF52ZFTkKdKA1ZvNIhUBxnRBH4UzgimiyPQmGgQvSLH7/+85MSl/KuQspawLgojWU0mdlAqD4cT43J6Hjc6RnT3oTHSU4r8EnlX8OsZtfnqRRUYZji4FtwKeZXYqMG/V7NiM4Mgr25sYKTWDiHpWDbhMqJ3lJl1cpHcZQu5Y4UBHJ0A6fOJhslNuQaQRP+XEs6OWkDu7T15m+fbxJQC1FhdhxSpm93RQyVKBIq0NWp/fSfL7/88OXz57fPfnbz5fdLGtQ8+tIDcQ6nqTjUYQ8pT9WbCoJOJsKZF9Z3C/VFgbxpPIpoyBLXvi/6RTVCIGpzbeI36i+g5AnFwl+AVxD0Lk5610wdbPcQmWUA7FxiqLZR3llrQObw3K///s1vb3/1+e0nz15/+Mebj/5w8/Enr1787vXT38tTd/vk2e1PnqosXy0Ewhber8sG0BC3P8/gp9Hgtdv46oOfG2HEDOg5jFRkpK8++LSgjBsqupNcM7Rz2pCyCWusRWEuZxRM0TaU5LSIbAA6vIQ1NYcqYtGSevkk79W5Kn7uBOEb/Wk9TYgRQTv1TVhJmTkX/l/llIgsqUcPLMd2FFVaw5cww0nB9Y+CaAZNRkYQ16sKS0nq6wVyXjHfo8Go3RrkLNKIUezDbczid0T+gbKekpeUfpKN9KUiR4AKjZ+XBvxGvMa2TtKaC2nMVFfLs5bP059rWeLuVq6PJQ64ncexbIhC9VI5SZfQDWcPEHfTxaNMoQE+lL1qsSXOx/1umQ7jAhUKYZnMAUEXqUmRZJrqJ/wWK9vZQ+6afAi00kMOuEM9RspO6xL6ytjkeacXx1G8MfnklIxtCJ00ZBQz97jmEXsqu24/36sMyBKe/pC3PrXCqEsCwrZ7qTNz6WF0+daysPfbivaTUeArZ2539dBuyRUUnyt5oPy/r5Uy2FpxDI0Vf97Y+nkxu7SO4a67pTVyKUKQXwFhdvX+d0DjhD3mmUB9SeRUI6eyQ30MjansQx9LQHDID7VIpd0smZkdXSYfjaNgQBd0y2uhlZ3vshLw5XIpW7j+dpHCS8shuYYGs6ABkuLse1A2+JVnO20yYCGXann+TpPQ8znb1rAHM0x8MrPq3ow49Xu+tVvfI6RZt234H3uOY1k7/JFHKYfMQcnVlpOY2Yblf8xx/ws+naRuBRoAAA==</t>
+          <t>3RsAAB+LCAAAAAAAAAOlWUlvI8cV/isNnhIgZC8UOaJQ0wY3yURIUSCpaORLUOwuihU1u+leJPHmAAkcOA6CIBgHzoqcHATIZJDYgDOT5b8YI83klL+QV0uvpDxpxRBg1veWevXqbdWD3rlZOcoV8QPquY8rek2rKMS1PJu6F48rUbio6s3KOybq31jEOcE+XpEQmBWQcoODm4A+rizDcH2gqtfX17Xres3zL1RD03T1yWg4tZZkhavUDULsWqSSSNlvl6qYqGuvRiTENg6xkHxcGUwHtS6hVg+wEXbxBfFrnSigLgmCvhvSkJKASfoEh6TbG31HHMw0as2ajtQtPOXsRNSxBV+OU+CSD7YlM7oipqEZWlXbrxp7M6150KgfNBo1rbH/XiyYMKIhDsIp8a+oxYFpiFdrLq7tG3tas1FvNJC6kwl0pQ4w0dixJ+SKBsTuEscJSnlElRfYtkI4dTlnakjNyEpFDzfhyMfr5YyGDikrfuj5xAJHPWjvY3I99qX/ZushUGdL6oebHt6U1nUaEH+8Zt4oJ2qinueGbYf44ekaLpXYcOdAMEM/Iki9h5gK9WhgwW/qRsQ2F9gJskI5Ijrz/MtgjS1yDAmrMh3XruNhGyIrpEFIrXTTLQI68b01aITNO55jH4JWybyDkGgeuOBitm3H8y5T63YREY8BHg1wpyscxuxbOJouveux62ym0TywfDondq8Tc++kIZZ5UrobBaG3AitSCAksg2zgP8i0Iox6xKIr7Jw44MTArIOWHIDaUegtaNj1nGjlBrFNBRSdwYlm5CY5YbJGY7hclzndcwduQctOWl5i4l3HV7iNcydk4HZgxde9TSgy9wCLr2+bwm+EnfKQOtAIsneRQfNRMV0SEu4MCUFBrOYdstZidjZsT6SmCILIhOgGFKqm1qzCn6HNNO2A/8HOCRn1XTvl041qXc/wxUR0HK3Gc8jgK34mUwdaAUJwCqfjYPcS0DMaLo/bsfU7KEic+V7+bRqCXF07eMPhxC9ZDA1cy4lsIkrAwF3woGS2Se576WgLGkJaswpAFjhyoMuEUCMuklArwqgdXBZ5shA69Z34Ck3WwwNo4pa9qllQ/VijqlneigEq9M6zKVKz/KyEW6TvXgyxexFBkUzcVMSTAGIJPvOxG7DzJDWxEEu7mVDsdlGrze27Q2qBBc3Iau352BmBT+hh5PKeJ2s9OHGEw6VcQVo6xMo4OBZNpPJGxTa/jY0nmDgBq90ybwsgZ2LhLCaFTBKmIGJnHHk2NGvs0Lmfi5+dNListLPFkcROV7LLxf6HcRFKx7fJhs0Q6ULis82amHpM4CvUBZPM6WRv32hodQPKMlsjfuQJwY7Sh0EyJMrAvSJBuAKxA2VCAmrDL4qdA+VdMicU8pn7SGZUaemsHDr0yfsRDMQbbkob7M0jeQYolhfUxc42Y0JJBcxzgn1nk2EURx16FvDd/ehft79+/urFZ3cfPX3zxQ/+8/dfvvrHT2+f/RB+3P3lr7cf/0IcUzCjGZ47hBs06+zva/U9CLQEQsy5Ku/rdmSFHDs/5+08WSM5fvJFtz/oHg07EFEZMBZnk0LEkmGIN16ULqfiEHwjfqVqHAmCxZxxfek6R+0R1sNFFrJJ84rkubP0+wSFL16//Oz1yz/dKy0dlrYNvdVqsG6h6W/rKrq+xZd0FTbBi7lNvg/0varWqBpGhrnAgybwzIExLfHTwDbrutbSjLqmx/YDFgfyLqYiSWqa4Qu1ICegrhe5ob9JQiC7jok88GeQIglZpEJmIUP0ix+/+fPTHJf0rkTyWsA4L/JFNKnxgqs+nsyU6fh00u0rs/6UxUlKy/AJ5V/DLHdP8ikXVK4bYedb8LhlT1ulAuNcRfEWCsHWUtlAJmbyMBdsu1Cx0QNVFq088r1oLW4kI5CiOziTarJTYket4TTuz62ik5J2sAtbb//2+S4BeRAZZqcuDc3JqKOs3CQuOYZyFAFl6DJrP/3nqy8/fPXixd3zn91++f2cBrlP8qaBOIdsyi6TsIeSJ/tNAUFnU+7MS+27mf4iQTYTnnjUDQNTb/JxUK4QiOpMG/8/Gqyg5XHF3F+AFxD0Lg76N6FMbPMYqXkA7Fxj6LZeOjgngKjhqV///Zvf3v3q87tPnr/58I+3H/3h9uNPXr/83ZtnvxdZd/f0+d1PnskqX2wE3BY2josJUOGPO0th2aiw3q189cHPFdcLFZg5lIhXpK8++DSjjBnKp5NUM4xziSF5E7ZYs8JMTsmYktiQk0tExADQZS2snnDIJuatqZVu8l6VqWJ5xwnfGMyqUUAUD8apb8JJ8syp8P8qJ0VESz15pBm6IanCGnaEOQ4yrj9yvDkMGTGBv54KLDmprxdIefl+R8Nxpz1MWYQRY9+Gx5bGnoDsBxoE8VSZvBNSBKgw7FmRwx65W2zbJBT/ypQuVb4WF22blTxT0zS9yv8ybS7HAQ9u3xdDkCu/Mk6jNUzA8TeF++n8O0tm6D0W82l2DE7Xg16eDusMFZpfnswATuflSJJEaRoE7GEqRthj5pp0CbTctxlwh/yQKKarK5glfZXVmr7ve/7OgpNSYrYRTM9QRdTU4wmPyrYUk7ad3lUMxEUu+cFm9aQWej3ikLD0V7ZYeuRdPVgW7r6s6CAYO7Z0ZrnnRuKWVEH2UyMLlLLGtH0fxib2baL0t8EhdS8H5U5vzpvz/Zb1yFhozYbWMvZJXTfqpG4191tG6xHUQaGUPT+ZCvZyYW+3cpvAsJgXT9/YE3h1l9QmHMwF2WMUPMUTUhb2ZI0OqR+ET1iJkr8Ecp4g52J0fmLquhiQnwiAc4gf8vuz3EzNWR3Xl1B8lfacIV3Rku9VLS5CeSUQBuu1mC3LXij0vGNyA5NvRgNU6/n3oJ+xt1g5bSKroMgn8rGuaTQvrU6NhU+AzgLrYdJ9G+ayh0vzb7zU+T8M4JPXQ1UM3IBeLMOy92q0WnXSJEbVWFhWdQ8WVejG86qNFy1d0xZ1u2Gwb3NSOXQHSq5LbsJ6Cg3gXVFeTi38I535XyaU0jvdGwAA</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,64 +396,36 @@
         </is>
       </c>
       <c r="B1" s="2">
-        <v>15733.82555555556</v>
+        <v>37962.97</v>
       </c>
       <c r="C1" s="2">
-        <v>139798646.1781028</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2">
-        <v>11823.64775262282</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2">
-        <v>0.951248095277063</v>
+        <v>0</v>
       </c>
       <c r="F1" s="2">
-        <v>-0.1855642624124751</v>
+        <v>0</v>
       </c>
       <c r="G1" s="2">
-        <v>0.7514795248538862</v>
+        <v>0</v>
       </c>
       <c r="H1" s="2">
-        <v>3271.34</v>
+        <v>37962.97</v>
       </c>
       <c r="I1" s="2">
         <v>37962.97</v>
       </c>
       <c r="J1" s="2">
-        <v>10540.67</v>
+        <v>37962.97</v>
       </c>
       <c r="K1" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L1" s="3">
-        <v>3271.34</v>
-      </c>
-      <c r="M1" s="3">
-        <f>NA()</f>
-        <v>0</v>
-      </c>
-      <c r="N1" s="3">
-        <v>6384.48</v>
-      </c>
-      <c r="O1" s="3">
-        <v>7111.74</v>
-      </c>
-      <c r="P1" s="3">
-        <v>8354.02</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>10540.67</v>
-      </c>
-      <c r="R1" s="3">
-        <v>16421.36</v>
-      </c>
-      <c r="S1" s="3">
-        <v>22352.63</v>
-      </c>
-      <c r="T1" s="3">
-        <v>29205.22</v>
-      </c>
-      <c r="U1" s="3">
         <v>37962.97</v>
       </c>
     </row>
@@ -461,4 +433,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>1</EndRow>
+          <EndCol>12</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AE36D7F-04CC-48C4-BD41-AFFE3B575439}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_77.xlsx
+++ b/Testdata/TC_77.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3RsAAB+LCAAAAAAAAAOlWUlvI8cV/isNnhIgZC8UOaJQ0wY3yURIUSCpaORLUOwuihU1u+leJPHmAAkcOA6CIBgHzoqcHATIZJDYgDOT5b8YI83klL+QV0uvpDxpxRBg1veWevXqbdWD3rlZOcoV8QPquY8rek2rKMS1PJu6F48rUbio6s3KOybq31jEOcE+XpEQmBWQcoODm4A+rizDcH2gqtfX17Xres3zL1RD03T1yWg4tZZkhavUDULsWqSSSNlvl6qYqGuvRiTENg6xkHxcGUwHtS6hVg+wEXbxBfFrnSigLgmCvhvSkJKASfoEh6TbG31HHMw0as2ajtQtPOXsRNSxBV+OU+CSD7YlM7oipqEZWlXbrxp7M6150KgfNBo1rbH/XiyYMKIhDsIp8a+oxYFpiFdrLq7tG3tas1FvNJC6kwl0pQ4w0dixJ+SKBsTuEscJSnlElRfYtkI4dTlnakjNyEpFDzfhyMfr5YyGDikrfuj5xAJHPWjvY3I99qX/ZushUGdL6oebHt6U1nUaEH+8Zt4oJ2qinueGbYf44ekaLpXYcOdAMEM/Iki9h5gK9WhgwW/qRsQ2F9gJskI5Ijrz/MtgjS1yDAmrMh3XruNhGyIrpEFIrXTTLQI68b01aITNO55jH4JWybyDkGgeuOBitm3H8y5T63YREY8BHg1wpyscxuxbOJouveux62ym0TywfDondq8Tc++kIZZ5UrobBaG3AitSCAksg2zgP8i0Iox6xKIr7Jw44MTArIOWHIDaUegtaNj1nGjlBrFNBRSdwYlm5CY5YbJGY7hclzndcwduQctOWl5i4l3HV7iNcydk4HZgxde9TSgy9wCLr2+bwm+EnfKQOtAIsneRQfNRMV0SEu4MCUFBrOYdstZidjZsT6SmCILIhOgGFKqm1qzCn6HNNO2A/8HOCRn1XTvl041qXc/wxUR0HK3Gc8jgK34mUwdaAUJwCqfjYPcS0DMaLo/bsfU7KEic+V7+bRqCXF07eMPhxC9ZDA1cy4lsIkrAwF3woGS2Se576WgLGkJaswpAFjhyoMuEUCMuklArwqgdXBZ5shA69Z34Ck3WwwNo4pa9qllQ/VijqlneigEq9M6zKVKz/KyEW6TvXgyxexFBkUzcVMSTAGIJPvOxG7DzJDWxEEu7mVDsdlGrze27Q2qBBc3Iau352BmBT+hh5PKeJ2s9OHGEw6VcQVo6xMo4OBZNpPJGxTa/jY0nmDgBq90ybwsgZ2LhLCaFTBKmIGJnHHk2NGvs0Lmfi5+dNListLPFkcROV7LLxf6HcRFKx7fJhs0Q6ULis82amHpM4CvUBZPM6WRv32hodQPKMlsjfuQJwY7Sh0EyJMrAvSJBuAKxA2VCAmrDL4qdA+VdMicU8pn7SGZUaemsHDr0yfsRDMQbbkob7M0jeQYolhfUxc42Y0JJBcxzgn1nk2EURx16FvDd/ehft79+/urFZ3cfPX3zxQ/+8/dfvvrHT2+f/RB+3P3lr7cf/0IcUzCjGZ47hBs06+zva/U9CLQEQsy5Ku/rdmSFHDs/5+08WSM5fvJFtz/oHg07EFEZMBZnk0LEkmGIN16ULqfiEHwjfqVqHAmCxZxxfek6R+0R1sNFFrJJ84rkubP0+wSFL16//Oz1yz/dKy0dlrYNvdVqsG6h6W/rKrq+xZd0FTbBi7lNvg/0varWqBpGhrnAgybwzIExLfHTwDbrutbSjLqmx/YDFgfyLqYiSWqa4Qu1ICegrhe5ob9JQiC7jok88GeQIglZpEJmIUP0ix+/+fPTHJf0rkTyWsA4L/JFNKnxgqs+nsyU6fh00u0rs/6UxUlKy/AJ5V/DLHdP8ikXVK4bYedb8LhlT1ulAuNcRfEWCsHWUtlAJmbyMBdsu1Cx0QNVFq088r1oLW4kI5CiOziTarJTYket4TTuz62ik5J2sAtbb//2+S4BeRAZZqcuDc3JqKOs3CQuOYZyFAFl6DJrP/3nqy8/fPXixd3zn91++f2cBrlP8qaBOIdsyi6TsIeSJ/tNAUFnU+7MS+27mf4iQTYTnnjUDQNTb/JxUK4QiOpMG/8/Gqyg5XHF3F+AFxD0Lg76N6FMbPMYqXkA7Fxj6LZeOjgngKjhqV///Zvf3v3q87tPnr/58I+3H/3h9uNPXr/83ZtnvxdZd/f0+d1PnskqX2wE3BY2josJUOGPO0th2aiw3q189cHPFdcLFZg5lIhXpK8++DSjjBnKp5NUM4xziSF5E7ZYs8JMTsmYktiQk0tExADQZS2snnDIJuatqZVu8l6VqWJ5xwnfGMyqUUAUD8apb8JJ8syp8P8qJ0VESz15pBm6IanCGnaEOQ4yrj9yvDkMGTGBv54KLDmprxdIefl+R8Nxpz1MWYQRY9+Gx5bGnoDsBxoE8VSZvBNSBKgw7FmRwx65W2zbJBT/ypQuVb4WF22blTxT0zS9yv8ybS7HAQ9u3xdDkCu/Mk6jNUzA8TeF++n8O0tm6D0W82l2DE7Xg16eDusMFZpfnswATuflSJJEaRoE7GEqRthj5pp0CbTctxlwh/yQKKarK5glfZXVmr7ve/7OgpNSYrYRTM9QRdTU4wmPyrYUk7ad3lUMxEUu+cFm9aQWej3ikLD0V7ZYeuRdPVgW7r6s6CAYO7Z0ZrnnRuKWVEH2UyMLlLLGtH0fxib2baL0t8EhdS8H5U5vzpvz/Zb1yFhozYbWMvZJXTfqpG4191tG6xHUQaGUPT+ZCvZyYW+3cpvAsJgXT9/YE3h1l9QmHMwF2WMUPMUTUhb2ZI0OqR+ET1iJkr8Ecp4g52J0fmLquhiQnwiAc4gf8vuz3EzNWR3Xl1B8lfacIV3Rku9VLS5CeSUQBuu1mC3LXij0vGNyA5NvRgNU6/n3oJ+xt1g5bSKroMgn8rGuaTQvrU6NhU+AzgLrYdJ9G+ayh0vzb7zU+T8M4JPXQ1UM3IBeLMOy92q0WnXSJEbVWFhWdQ8WVejG86qNFy1d0xZ1u2Gwb3NSOXQHSq5LbsJ6Cg3gXVFeTi38I535XyaU0jvdGwAA</t>
+          <t>BRoAAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAyb3QsiVhvAFvcoiSokBSlZWXYrg7Eqda7jK7s5L4lgItUqQpiqJwivSKPqUoUNdoEyC1e/kvgSW7T/0LPXPZ2QupuHQNwdr5zmXOnDlzzpkReud6ERiXJE5oFD6s2Q2rZpDQi3wanj+speysbt+vveOi3rVHgiMc4wVhwGyAVJjsXyf0YW3O2HLfNK+urhpXzUYUn5uOZdnm4+Fg4s3JAtdpmDAceqSmpfw3S9Vc1PEXQ8KwjxmWkg9r/Um/0SHU6wI2xCE+J3GjnSY0JEnSCxlllCRcMiaYkU53+B25MNdp3G/YyFzDc852SgNf8pU4Ja74YFoypQviOpa9W7d26017ajv7zs6+4zQsa++9TFAzogFO2ITEl9QTwIThxVKIW7tN23acHcdB5kYm0JU7wEWjwB+TS5oQv0OCINnKI6bawJbHYNXbOdNCZkFWKXp7Ex7FeDmfUhaQ7cwYD9vGIlS25EpcdBDFxAP/vZVJh+RqFCu3TpcDoE7nNGarLl5tres4IfFoyZ20naiLulHIWgGJ2fES9pr4EApAcFmcEmTeQcyFujTx4JuGKfHdMxwkRaESEZ1E8UWyxB45hHNsch1XYRBhHwKO0YRRL590jYCO4mgJGmHydhT4B6BVMW8gaM39EFzMp21H0UVu3SYiErsq9hf2dIFZxr6Go8k8uhqFwWqSzhIvpjPid9sZ90Ya4gdSSXfShEULsCKHkMQKyAr+wQGswqhLPLrAwVEATkzcJmgpAaiVsuiMsk4UpIswyWyqoOgEVjQl13qFeoxGsLkhd3oU9sOKlo20ssQ4usq2cB0XTijArcTLtnudUGXuApZt3zpF7Ahf5QENoD4U96KAlqNiMieEbQwJSUE8FR7wiuO2V3xOZOYIgsiE6AbUtff2HtQtG36mlrUvfmBmTUa90BcfUF/u122H5+ycLyOiw3QxmsEJvhRrcm2gVSAEqwjaAQ4vAD2hbH7YyqzfQEFyzXfyr9MQnNVlgFcC1n4pYqgfekHqE5kC+uGZCEpum+K+k47WoAEcaxfhcDVdLXkqMO/g6JIznAZQnRgkkXMdi1UYtZKLKk8RQsdxkO2xy2t/AsXf8xcND9IjL3ANL1pwwISaezJBZpGf53iP9MLzAQ7PU8ii2o9VXEcYzwDTGIcJX45OmpVg28yEsn2Rydxd31xkVljQlCyWUYyDIfiEHqShqJWqGIBzh5jN1QjObUC8zL9mLqqlykZlNr+JTZxAuQKe3NXBroCCice77DAKpzQHEV/jMPKhyOOAzuJSgG2kwWblpS8LNb66Lctg5n9oMyG3fJuseO+RDxTO49W1M4IYoQ6Y5E7G93adHasJ/ZQYI7HkMcGB0YMGlBGjH16ShC1AbN8Yk4T68EVxsG+8S2aEwoEXPlJHbmvpohw6iMn7KTTSK2FKC+wtI2UGyKbnNMTBOqOm5ALuKcFxsCowyqUOIg/4bn/0r5tfP3v5/LPbj568/uIH//n7L1/+46c3T38IH7d/+evNx7+Qy5TMaIpnAREGTdu7u1bzHgSahpBKDVDf/dRjAjs9FfVej5FqW8Wg0+t3Hg3aIpdoMBPnrUTKD8MAr6I0H07kIsREYkvNLBIkizvNcpMal6hdwou8PIW8Q70kZe4i/S5B6YtXLz579eJPd0orh5XKzg4vJ28uO7a9xqfLDu/8ZWOX3Svu1a2duuMUmCs8aAzXI+jjtJ/6vtu0rT3LaVq2zuO+DuRNTFWS0jTF52ZFTkKdKA1ZvNIhUBxnRBH4UzgimiyPQmGgQvSLH7/+85MSl/KuQspawLgojWU0mdlAqD4cT43J6Hjc6RnT3oTHSU4r8EnlX8OsZtfnqRRUYZji4FtwKeZXYqMG/V7NiM4Mgr25sYKTWDiHpWDbhMqJ3lJl1cpHcZQu5Y4UBHJ0A6fOJhslNuQaQRP+XEs6OWkDu7T15m+fbxJQC1FhdhxSpm93RQyVKBIq0NWp/fSfL7/88OXz57fPfnbz5fdLGtQ8+tIDcQ6nqTjUYQ8pT9WbCoJOJsKZF9Z3C/VFgbxpPIpoyBLXvi/6RTVCIGpzbeI36i+g5AnFwl+AVxD0Lk5610wdbPcQmWUA7FxiqLZR3llrQObw3K///s1vb3/1+e0nz15/+Mebj/5w8/Enr1787vXT38tTd/vk2e1PnqosXy0Ewhber8sG0BC3P8/gp9Hgtdv46oOfG2HEDOg5jFRkpK8++LSgjBsqupNcM7Rz2pCyCWusRWEuZxRM0TaU5LSIbAA6vIQ1NYcqYtGSevkk79W5Kn7uBOEb/Wk9TYgRQTv1TVhJmTkX/l/llIgsqUcPLMd2FFVaw5cww0nB9Y+CaAZNRkYQ16sKS0nq6wVyXjHfo8Go3RrkLNKIUezDbczid0T+gbKekpeUfpKN9KUiR4AKjZ+XBvxGvMa2TtKaC2nMVFfLs5bP059rWeLuVq6PJQ64ncexbIhC9VI5SZfQDWcPEHfTxaNMoQE+lL1qsSXOx/1umQ7jAhUKYZnMAUEXqUmRZJrqJ/wWK9vZQ+6afAi00kMOuEM9RspO6xL6ytjkeacXx1G8MfnklIxtCJ00ZBQz97jmEXsqu24/36sMyBKe/pC3PrXCqEsCwrZ7qTNz6WF0+daysPfbivaTUeArZ2539dBuyRUUnyt5oPy/r5Uy2FpxDI0Vf97Y+nkxu7SO4a67pTVyKUKQXwFhdvX+d0DjhD3mmUB9SeRUI6eyQ30MjansQx9LQHDID7VIpd0smZkdXSYfjaNgQBd0y2uhlZ3vshLw5XIpW7j+dpHCS8shuYYGs6ABkuLse1A2+JVnO20yYCGXann+TpPQ8znb1rAHM0x8MrPq3ow49Xu+tVvfI6RZt234H3uOY1k7/JFHKYfMQcnVlpOY2Yblf8xx/ws+naRuBRoAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,36 +396,64 @@
         </is>
       </c>
       <c r="B1" s="2">
-        <v>37962.97</v>
+        <v>15733.82555555556</v>
       </c>
       <c r="C1" s="2">
-        <v>0</v>
+        <v>139798646.1781028</v>
       </c>
       <c r="D1" s="2">
-        <v>0</v>
+        <v>11823.64775262282</v>
       </c>
       <c r="E1" s="2">
-        <v>0</v>
+        <v>0.951248095277063</v>
       </c>
       <c r="F1" s="2">
-        <v>0</v>
+        <v>-0.1855642624124751</v>
       </c>
       <c r="G1" s="2">
-        <v>0</v>
+        <v>0.7514795248538862</v>
       </c>
       <c r="H1" s="2">
-        <v>37962.97</v>
+        <v>3271.34</v>
       </c>
       <c r="I1" s="2">
         <v>37962.97</v>
       </c>
       <c r="J1" s="2">
-        <v>37962.97</v>
+        <v>10540.67</v>
       </c>
       <c r="K1" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L1" s="3">
+        <v>3271.34</v>
+      </c>
+      <c r="M1" s="3">
+        <f>NA()</f>
+        <v>0</v>
+      </c>
+      <c r="N1" s="3">
+        <v>6384.48</v>
+      </c>
+      <c r="O1" s="3">
+        <v>7111.74</v>
+      </c>
+      <c r="P1" s="3">
+        <v>8354.02</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>10540.67</v>
+      </c>
+      <c r="R1" s="3">
+        <v>16421.36</v>
+      </c>
+      <c r="S1" s="3">
+        <v>22352.63</v>
+      </c>
+      <c r="T1" s="3">
+        <v>29205.22</v>
+      </c>
+      <c r="U1" s="3">
         <v>37962.97</v>
       </c>
     </row>
@@ -433,37 +461,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>1</EndRow>
-          <EndCol>12</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AE36D7F-04CC-48C4-BD41-AFFE3B575439}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>